--- a/配表/英雄属性表.xlsx
+++ b/配表/英雄属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="HeroattributeConfig" sheetId="1" r:id="rId1"/>
@@ -631,12 +631,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1648,8 +1648,8 @@
   <sheetPr/>
   <dimension ref="A1:J1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A990" workbookViewId="0">
-      <selection activeCell="G806" sqref="G806:G1005"/>
+    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="I496" sqref="I496:I505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14564,7 +14564,7 @@
         <v>22</v>
       </c>
       <c r="I406" s="5">
-        <v>150001</v>
+        <v>1260001</v>
       </c>
       <c r="J406">
         <v>105</v>
@@ -14596,7 +14596,7 @@
         <v>23</v>
       </c>
       <c r="I407" s="5">
-        <v>150001</v>
+        <v>1260001</v>
       </c>
       <c r="J407">
         <v>105</v>
@@ -14628,7 +14628,7 @@
         <v>24</v>
       </c>
       <c r="I408" s="5">
-        <v>150001</v>
+        <v>1260001</v>
       </c>
       <c r="J408">
         <v>105</v>
@@ -14660,7 +14660,7 @@
         <v>25</v>
       </c>
       <c r="I409" s="5">
-        <v>150001</v>
+        <v>1260001</v>
       </c>
       <c r="J409">
         <v>105</v>
@@ -14692,7 +14692,7 @@
         <v>26</v>
       </c>
       <c r="I410" s="5">
-        <v>150001</v>
+        <v>1260001</v>
       </c>
       <c r="J410">
         <v>105</v>
@@ -14724,7 +14724,7 @@
         <v>27</v>
       </c>
       <c r="I411" s="5">
-        <v>150001</v>
+        <v>1260001</v>
       </c>
       <c r="J411">
         <v>105</v>
@@ -14756,7 +14756,7 @@
         <v>28</v>
       </c>
       <c r="I412" s="5">
-        <v>150001</v>
+        <v>1260001</v>
       </c>
       <c r="J412">
         <v>105</v>
@@ -14788,7 +14788,7 @@
         <v>29</v>
       </c>
       <c r="I413" s="5">
-        <v>150001</v>
+        <v>1260001</v>
       </c>
       <c r="J413">
         <v>105</v>
@@ -14820,7 +14820,7 @@
         <v>30</v>
       </c>
       <c r="I414" s="5">
-        <v>150001</v>
+        <v>1260001</v>
       </c>
       <c r="J414">
         <v>105</v>
@@ -14852,7 +14852,7 @@
         <v>31</v>
       </c>
       <c r="I415" s="5">
-        <v>150001</v>
+        <v>1260001</v>
       </c>
       <c r="J415">
         <v>105</v>
@@ -14884,7 +14884,7 @@
         <v>32</v>
       </c>
       <c r="I416" s="5">
-        <v>150002</v>
+        <v>1260002</v>
       </c>
       <c r="J416">
         <v>105</v>
@@ -14916,7 +14916,7 @@
         <v>33</v>
       </c>
       <c r="I417" s="5">
-        <v>150002</v>
+        <v>1260002</v>
       </c>
       <c r="J417">
         <v>105</v>
@@ -14948,7 +14948,7 @@
         <v>34</v>
       </c>
       <c r="I418" s="5">
-        <v>150002</v>
+        <v>1260002</v>
       </c>
       <c r="J418">
         <v>105</v>
@@ -14980,7 +14980,7 @@
         <v>35</v>
       </c>
       <c r="I419" s="5">
-        <v>150002</v>
+        <v>1260002</v>
       </c>
       <c r="J419">
         <v>105</v>
@@ -15012,7 +15012,7 @@
         <v>36</v>
       </c>
       <c r="I420" s="5">
-        <v>150002</v>
+        <v>1260002</v>
       </c>
       <c r="J420">
         <v>105</v>
@@ -15044,7 +15044,7 @@
         <v>37</v>
       </c>
       <c r="I421" s="5">
-        <v>150002</v>
+        <v>1260002</v>
       </c>
       <c r="J421">
         <v>105</v>
@@ -15076,7 +15076,7 @@
         <v>38</v>
       </c>
       <c r="I422" s="5">
-        <v>150002</v>
+        <v>1260002</v>
       </c>
       <c r="J422">
         <v>105</v>
@@ -15108,7 +15108,7 @@
         <v>39</v>
       </c>
       <c r="I423" s="5">
-        <v>150002</v>
+        <v>1260002</v>
       </c>
       <c r="J423">
         <v>105</v>
@@ -15140,7 +15140,7 @@
         <v>40</v>
       </c>
       <c r="I424" s="5">
-        <v>150002</v>
+        <v>1260002</v>
       </c>
       <c r="J424">
         <v>105</v>
@@ -15172,7 +15172,7 @@
         <v>41</v>
       </c>
       <c r="I425" s="5">
-        <v>150002</v>
+        <v>1260002</v>
       </c>
       <c r="J425">
         <v>105</v>
@@ -15204,7 +15204,7 @@
         <v>42</v>
       </c>
       <c r="I426" s="5">
-        <v>150003</v>
+        <v>1260003</v>
       </c>
       <c r="J426">
         <v>105</v>
@@ -15236,7 +15236,7 @@
         <v>43</v>
       </c>
       <c r="I427" s="5">
-        <v>150003</v>
+        <v>1260003</v>
       </c>
       <c r="J427">
         <v>105</v>
@@ -15268,7 +15268,7 @@
         <v>44</v>
       </c>
       <c r="I428" s="5">
-        <v>150003</v>
+        <v>1260003</v>
       </c>
       <c r="J428">
         <v>105</v>
@@ -15300,7 +15300,7 @@
         <v>45</v>
       </c>
       <c r="I429" s="5">
-        <v>150003</v>
+        <v>1260003</v>
       </c>
       <c r="J429">
         <v>105</v>
@@ -15332,7 +15332,7 @@
         <v>46</v>
       </c>
       <c r="I430" s="5">
-        <v>150003</v>
+        <v>1260003</v>
       </c>
       <c r="J430">
         <v>105</v>
@@ -15364,7 +15364,7 @@
         <v>47</v>
       </c>
       <c r="I431" s="5">
-        <v>150003</v>
+        <v>1260003</v>
       </c>
       <c r="J431">
         <v>105</v>
@@ -15396,7 +15396,7 @@
         <v>48</v>
       </c>
       <c r="I432" s="5">
-        <v>150003</v>
+        <v>1260003</v>
       </c>
       <c r="J432">
         <v>105</v>
@@ -15428,7 +15428,7 @@
         <v>49</v>
       </c>
       <c r="I433" s="5">
-        <v>150003</v>
+        <v>1260003</v>
       </c>
       <c r="J433">
         <v>105</v>
@@ -15460,7 +15460,7 @@
         <v>50</v>
       </c>
       <c r="I434" s="5">
-        <v>150003</v>
+        <v>1260003</v>
       </c>
       <c r="J434">
         <v>105</v>
@@ -15492,7 +15492,7 @@
         <v>51</v>
       </c>
       <c r="I435" s="5">
-        <v>150003</v>
+        <v>1260003</v>
       </c>
       <c r="J435">
         <v>105</v>
@@ -15524,7 +15524,7 @@
         <v>52</v>
       </c>
       <c r="I436" s="5">
-        <v>150004</v>
+        <v>1260004</v>
       </c>
       <c r="J436">
         <v>105</v>
@@ -15556,7 +15556,7 @@
         <v>53</v>
       </c>
       <c r="I437" s="5">
-        <v>150004</v>
+        <v>1260004</v>
       </c>
       <c r="J437">
         <v>105</v>
@@ -15588,7 +15588,7 @@
         <v>54</v>
       </c>
       <c r="I438" s="5">
-        <v>150004</v>
+        <v>1260004</v>
       </c>
       <c r="J438">
         <v>105</v>
@@ -15620,7 +15620,7 @@
         <v>55</v>
       </c>
       <c r="I439" s="5">
-        <v>150004</v>
+        <v>1260004</v>
       </c>
       <c r="J439">
         <v>105</v>
@@ -15652,7 +15652,7 @@
         <v>56</v>
       </c>
       <c r="I440" s="5">
-        <v>150004</v>
+        <v>1260004</v>
       </c>
       <c r="J440">
         <v>105</v>
@@ -15684,7 +15684,7 @@
         <v>57</v>
       </c>
       <c r="I441" s="5">
-        <v>150004</v>
+        <v>1260004</v>
       </c>
       <c r="J441">
         <v>105</v>
@@ -15716,7 +15716,7 @@
         <v>58</v>
       </c>
       <c r="I442" s="5">
-        <v>150004</v>
+        <v>1260004</v>
       </c>
       <c r="J442">
         <v>105</v>
@@ -15748,7 +15748,7 @@
         <v>59</v>
       </c>
       <c r="I443" s="5">
-        <v>150004</v>
+        <v>1260004</v>
       </c>
       <c r="J443">
         <v>105</v>
@@ -15780,7 +15780,7 @@
         <v>60</v>
       </c>
       <c r="I444" s="5">
-        <v>150004</v>
+        <v>1260004</v>
       </c>
       <c r="J444">
         <v>105</v>
@@ -15812,7 +15812,7 @@
         <v>61</v>
       </c>
       <c r="I445" s="5">
-        <v>150004</v>
+        <v>1260004</v>
       </c>
       <c r="J445">
         <v>105</v>
@@ -15844,7 +15844,7 @@
         <v>62</v>
       </c>
       <c r="I446" s="5">
-        <v>150005</v>
+        <v>1260005</v>
       </c>
       <c r="J446">
         <v>105</v>
@@ -15876,7 +15876,7 @@
         <v>63</v>
       </c>
       <c r="I447" s="5">
-        <v>150005</v>
+        <v>1260005</v>
       </c>
       <c r="J447">
         <v>105</v>
@@ -15908,7 +15908,7 @@
         <v>64</v>
       </c>
       <c r="I448" s="5">
-        <v>150005</v>
+        <v>1260005</v>
       </c>
       <c r="J448">
         <v>105</v>
@@ -15940,7 +15940,7 @@
         <v>65</v>
       </c>
       <c r="I449" s="5">
-        <v>150005</v>
+        <v>1260005</v>
       </c>
       <c r="J449">
         <v>105</v>
@@ -15972,7 +15972,7 @@
         <v>66</v>
       </c>
       <c r="I450" s="5">
-        <v>150005</v>
+        <v>1260005</v>
       </c>
       <c r="J450">
         <v>105</v>
@@ -16004,7 +16004,7 @@
         <v>67</v>
       </c>
       <c r="I451" s="5">
-        <v>150005</v>
+        <v>1260005</v>
       </c>
       <c r="J451">
         <v>105</v>
@@ -16036,7 +16036,7 @@
         <v>68</v>
       </c>
       <c r="I452" s="5">
-        <v>150005</v>
+        <v>1260005</v>
       </c>
       <c r="J452">
         <v>105</v>
@@ -16068,7 +16068,7 @@
         <v>69</v>
       </c>
       <c r="I453" s="5">
-        <v>150005</v>
+        <v>1260005</v>
       </c>
       <c r="J453">
         <v>105</v>
@@ -16100,7 +16100,7 @@
         <v>70</v>
       </c>
       <c r="I454" s="5">
-        <v>150005</v>
+        <v>1260005</v>
       </c>
       <c r="J454">
         <v>105</v>
@@ -16132,7 +16132,7 @@
         <v>71</v>
       </c>
       <c r="I455" s="5">
-        <v>150005</v>
+        <v>1260005</v>
       </c>
       <c r="J455">
         <v>105</v>
@@ -16164,7 +16164,7 @@
         <v>72</v>
       </c>
       <c r="I456" s="5">
-        <v>150006</v>
+        <v>1260006</v>
       </c>
       <c r="J456">
         <v>105</v>
@@ -16196,7 +16196,7 @@
         <v>73</v>
       </c>
       <c r="I457" s="5">
-        <v>150006</v>
+        <v>1260006</v>
       </c>
       <c r="J457">
         <v>105</v>
@@ -16228,7 +16228,7 @@
         <v>74</v>
       </c>
       <c r="I458" s="5">
-        <v>150006</v>
+        <v>1260006</v>
       </c>
       <c r="J458">
         <v>105</v>
@@ -16260,7 +16260,7 @@
         <v>75</v>
       </c>
       <c r="I459" s="5">
-        <v>150006</v>
+        <v>1260006</v>
       </c>
       <c r="J459">
         <v>105</v>
@@ -16292,7 +16292,7 @@
         <v>76</v>
       </c>
       <c r="I460" s="5">
-        <v>150006</v>
+        <v>1260006</v>
       </c>
       <c r="J460">
         <v>105</v>
@@ -16324,7 +16324,7 @@
         <v>77</v>
       </c>
       <c r="I461" s="5">
-        <v>150006</v>
+        <v>1260006</v>
       </c>
       <c r="J461">
         <v>105</v>
@@ -16356,7 +16356,7 @@
         <v>78</v>
       </c>
       <c r="I462" s="5">
-        <v>150006</v>
+        <v>1260006</v>
       </c>
       <c r="J462">
         <v>105</v>
@@ -16388,7 +16388,7 @@
         <v>79</v>
       </c>
       <c r="I463" s="5">
-        <v>150006</v>
+        <v>1260006</v>
       </c>
       <c r="J463">
         <v>105</v>
@@ -16420,7 +16420,7 @@
         <v>80</v>
       </c>
       <c r="I464" s="5">
-        <v>150006</v>
+        <v>1260006</v>
       </c>
       <c r="J464">
         <v>105</v>
@@ -16452,7 +16452,7 @@
         <v>81</v>
       </c>
       <c r="I465" s="5">
-        <v>150006</v>
+        <v>1260006</v>
       </c>
       <c r="J465">
         <v>105</v>
@@ -16484,7 +16484,7 @@
         <v>82</v>
       </c>
       <c r="I466" s="5">
-        <v>150007</v>
+        <v>1260007</v>
       </c>
       <c r="J466">
         <v>105</v>
@@ -16516,7 +16516,7 @@
         <v>83</v>
       </c>
       <c r="I467" s="5">
-        <v>150007</v>
+        <v>1260007</v>
       </c>
       <c r="J467">
         <v>105</v>
@@ -16548,7 +16548,7 @@
         <v>84</v>
       </c>
       <c r="I468" s="5">
-        <v>150007</v>
+        <v>1260007</v>
       </c>
       <c r="J468">
         <v>105</v>
@@ -16580,7 +16580,7 @@
         <v>85</v>
       </c>
       <c r="I469" s="5">
-        <v>150007</v>
+        <v>1260007</v>
       </c>
       <c r="J469">
         <v>105</v>
@@ -16612,7 +16612,7 @@
         <v>86</v>
       </c>
       <c r="I470" s="5">
-        <v>150007</v>
+        <v>1260007</v>
       </c>
       <c r="J470">
         <v>105</v>
@@ -16644,7 +16644,7 @@
         <v>87</v>
       </c>
       <c r="I471" s="5">
-        <v>150007</v>
+        <v>1260007</v>
       </c>
       <c r="J471">
         <v>105</v>
@@ -16676,7 +16676,7 @@
         <v>88</v>
       </c>
       <c r="I472" s="5">
-        <v>150007</v>
+        <v>1260007</v>
       </c>
       <c r="J472">
         <v>105</v>
@@ -16708,7 +16708,7 @@
         <v>89</v>
       </c>
       <c r="I473" s="5">
-        <v>150007</v>
+        <v>1260007</v>
       </c>
       <c r="J473">
         <v>105</v>
@@ -16740,7 +16740,7 @@
         <v>90</v>
       </c>
       <c r="I474" s="5">
-        <v>150007</v>
+        <v>1260007</v>
       </c>
       <c r="J474">
         <v>105</v>
@@ -16772,7 +16772,7 @@
         <v>91</v>
       </c>
       <c r="I475" s="5">
-        <v>150007</v>
+        <v>1260007</v>
       </c>
       <c r="J475">
         <v>105</v>
@@ -16804,7 +16804,7 @@
         <v>92</v>
       </c>
       <c r="I476" s="5">
-        <v>150008</v>
+        <v>1260008</v>
       </c>
       <c r="J476">
         <v>105</v>
@@ -16836,7 +16836,7 @@
         <v>93</v>
       </c>
       <c r="I477" s="5">
-        <v>150008</v>
+        <v>1260008</v>
       </c>
       <c r="J477">
         <v>105</v>
@@ -16868,7 +16868,7 @@
         <v>94</v>
       </c>
       <c r="I478" s="5">
-        <v>150008</v>
+        <v>1260008</v>
       </c>
       <c r="J478">
         <v>105</v>
@@ -16900,7 +16900,7 @@
         <v>95</v>
       </c>
       <c r="I479" s="5">
-        <v>150008</v>
+        <v>1260008</v>
       </c>
       <c r="J479">
         <v>105</v>
@@ -16932,7 +16932,7 @@
         <v>96</v>
       </c>
       <c r="I480" s="5">
-        <v>150008</v>
+        <v>1260008</v>
       </c>
       <c r="J480">
         <v>105</v>
@@ -16964,7 +16964,7 @@
         <v>97</v>
       </c>
       <c r="I481" s="5">
-        <v>150008</v>
+        <v>1260008</v>
       </c>
       <c r="J481">
         <v>105</v>
@@ -16996,7 +16996,7 @@
         <v>98</v>
       </c>
       <c r="I482" s="5">
-        <v>150008</v>
+        <v>1260008</v>
       </c>
       <c r="J482">
         <v>105</v>
@@ -17028,7 +17028,7 @@
         <v>99</v>
       </c>
       <c r="I483" s="5">
-        <v>150008</v>
+        <v>1260008</v>
       </c>
       <c r="J483">
         <v>105</v>
@@ -17060,7 +17060,7 @@
         <v>100</v>
       </c>
       <c r="I484" s="5">
-        <v>150008</v>
+        <v>1260008</v>
       </c>
       <c r="J484">
         <v>105</v>
@@ -17092,7 +17092,7 @@
         <v>101</v>
       </c>
       <c r="I485" s="5">
-        <v>150008</v>
+        <v>1260008</v>
       </c>
       <c r="J485">
         <v>105</v>
@@ -17124,7 +17124,7 @@
         <v>102</v>
       </c>
       <c r="I486" s="5">
-        <v>150009</v>
+        <v>1260009</v>
       </c>
       <c r="J486">
         <v>105</v>
@@ -17156,7 +17156,7 @@
         <v>103</v>
       </c>
       <c r="I487" s="5">
-        <v>150009</v>
+        <v>1260009</v>
       </c>
       <c r="J487">
         <v>105</v>
@@ -17188,7 +17188,7 @@
         <v>104</v>
       </c>
       <c r="I488" s="5">
-        <v>150009</v>
+        <v>1260009</v>
       </c>
       <c r="J488">
         <v>105</v>
@@ -17220,7 +17220,7 @@
         <v>105</v>
       </c>
       <c r="I489" s="5">
-        <v>150009</v>
+        <v>1260009</v>
       </c>
       <c r="J489">
         <v>105</v>
@@ -17252,7 +17252,7 @@
         <v>106</v>
       </c>
       <c r="I490" s="5">
-        <v>150009</v>
+        <v>1260009</v>
       </c>
       <c r="J490">
         <v>105</v>
@@ -17284,7 +17284,7 @@
         <v>107</v>
       </c>
       <c r="I491" s="5">
-        <v>150009</v>
+        <v>1260009</v>
       </c>
       <c r="J491">
         <v>105</v>
@@ -17316,7 +17316,7 @@
         <v>108</v>
       </c>
       <c r="I492" s="5">
-        <v>150009</v>
+        <v>1260009</v>
       </c>
       <c r="J492">
         <v>105</v>
@@ -17348,7 +17348,7 @@
         <v>109</v>
       </c>
       <c r="I493" s="5">
-        <v>150009</v>
+        <v>1260009</v>
       </c>
       <c r="J493">
         <v>105</v>
@@ -17380,7 +17380,7 @@
         <v>110</v>
       </c>
       <c r="I494" s="5">
-        <v>150009</v>
+        <v>1260009</v>
       </c>
       <c r="J494">
         <v>105</v>
@@ -17412,7 +17412,7 @@
         <v>111</v>
       </c>
       <c r="I495" s="5">
-        <v>150009</v>
+        <v>1260009</v>
       </c>
       <c r="J495">
         <v>105</v>
@@ -17444,7 +17444,7 @@
         <v>112</v>
       </c>
       <c r="I496" s="5">
-        <v>150010</v>
+        <v>1260010</v>
       </c>
       <c r="J496">
         <v>105</v>
@@ -17476,7 +17476,7 @@
         <v>113</v>
       </c>
       <c r="I497" s="5">
-        <v>150010</v>
+        <v>1260010</v>
       </c>
       <c r="J497">
         <v>105</v>
@@ -17508,7 +17508,7 @@
         <v>114</v>
       </c>
       <c r="I498" s="5">
-        <v>150010</v>
+        <v>1260010</v>
       </c>
       <c r="J498">
         <v>105</v>
@@ -17540,7 +17540,7 @@
         <v>115</v>
       </c>
       <c r="I499" s="5">
-        <v>150010</v>
+        <v>1260010</v>
       </c>
       <c r="J499">
         <v>105</v>
@@ -17572,7 +17572,7 @@
         <v>116</v>
       </c>
       <c r="I500" s="5">
-        <v>150010</v>
+        <v>1260010</v>
       </c>
       <c r="J500">
         <v>105</v>
@@ -17604,7 +17604,7 @@
         <v>117</v>
       </c>
       <c r="I501" s="5">
-        <v>150010</v>
+        <v>1260010</v>
       </c>
       <c r="J501">
         <v>105</v>
@@ -17636,7 +17636,7 @@
         <v>118</v>
       </c>
       <c r="I502" s="5">
-        <v>150010</v>
+        <v>1260010</v>
       </c>
       <c r="J502">
         <v>105</v>
@@ -17668,7 +17668,7 @@
         <v>119</v>
       </c>
       <c r="I503" s="5">
-        <v>150010</v>
+        <v>1260010</v>
       </c>
       <c r="J503">
         <v>105</v>
@@ -17700,7 +17700,7 @@
         <v>120</v>
       </c>
       <c r="I504" s="5">
-        <v>150010</v>
+        <v>1260010</v>
       </c>
       <c r="J504">
         <v>105</v>
@@ -17732,7 +17732,7 @@
         <v>121</v>
       </c>
       <c r="I505" s="5">
-        <v>150010</v>
+        <v>1260010</v>
       </c>
       <c r="J505">
         <v>105</v>
